--- a/13/1/3/Operaciones financieras 1990 a 2021 - Anual.xlsx
+++ b/13/1/3/Operaciones financieras 1990 a 2021 - Anual.xlsx
@@ -2835,16 +2835,16 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>202301</v>
+        <v>206822</v>
       </c>
       <c r="C32">
-        <v>-529607</v>
+        <v>-532347</v>
       </c>
       <c r="D32">
         <v>3146</v>
       </c>
       <c r="E32">
-        <v>532753</v>
+        <v>535493</v>
       </c>
       <c r="F32">
         <v>-15</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>731922</v>
+        <v>739184</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>-160626</v>
+        <v>-160685</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2889,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-160626</v>
+        <v>-160685</v>
       </c>
       <c r="U32">
         <v>12277</v>
       </c>
       <c r="V32">
-        <v>172903</v>
+        <v>172962</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>362926</v>
+        <v>367507</v>
       </c>
     </row>
   </sheetData>
